--- a/resources/template_tool_individual_level.xlsx
+++ b/resources/template_tool_individual_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted.sharepoint.com/sites/IMPACTHQ-Accountability&amp;Inclusion/Documents partages/General/12_Accountability to Affected People Specialist/07_Hesper Scale/5. Standard tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/raphael_bacot_impact-initiatives_org/Documents/git/hespeR/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{FC0AD072-D7BB-42DC-907A-83B5CD6FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E577EDF-FE66-47C2-8B6D-D117640B2426}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:1_{FC0AD072-D7BB-42DC-907A-83B5CD6FB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D64822B-522F-43C1-A83F-1746197EB754}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="681" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="681" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 README" sheetId="1" state="hidden" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="1499">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -4884,12 +4884,6 @@
     <t>Cannot select "None", "Prefer not to answer", "Don't know" with any other option</t>
   </si>
   <si>
-    <t>hesper_health_care_men</t>
-  </si>
-  <si>
-    <t>hesper_health_care_women</t>
-  </si>
-  <si>
     <t>aap_hesper_33</t>
   </si>
   <si>
@@ -4903,9 +4897,6 @@
   </si>
   <si>
     <t>Soins de santé pour les hommes</t>
-  </si>
-  <si>
-    <t>hesper_clean_women</t>
   </si>
   <si>
     <t>aap_hesper_34</t>
@@ -5006,18 +4997,12 @@
     <t>Votre ménage a t'il un grave problème du fait que vous n’êtes pas en sécurité ou protégés où vous vivez aujourd’hui? Par exemple, à cause d'un conflit, de la violence ou de la criminalité dans votre communauté, ville ou village.</t>
   </si>
   <si>
-    <t>men</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Homme</t>
   </si>
   <si>
-    <t>women</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -5040,9 +5025,6 @@
   </si>
   <si>
     <t>Quel est le statut du/de la répondant-e-</t>
-  </si>
-  <si>
-    <t>hesper_clean_men</t>
   </si>
   <si>
     <t>Do you have a serious problem with food? For example, because you do not have enough food or good enough food, or because you are not able to cook food.</t>
@@ -5129,19 +5111,71 @@
   </si>
   <si>
     <t>Y a-t-il un problème grave dans votre communauté parce qu'il n'y a pas assez de soins pour les personnes qui sont seules ? Par exemple, les enfants non accompagnés, les veuves ou les personnes âgées, ou les personnes non accompagnées souffrant d'une maladie physique ou de problèmes de santé mentale, ou d'un handicap.</t>
+  </si>
+  <si>
+    <t>Votre ménage a t'il un problème grave parce que vous n'a pas assez d'eau potable ou d'eau pour cuisiner ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have a serious problem because in your situation it is difficult to care for other household members? For example, young children in your household, or household members who are elderly, or with a physical or mental health issue or a disability </t>
+  </si>
+  <si>
+    <t>If selected "displaced" to question "pop_group"</t>
+  </si>
+  <si>
+    <t>If there is at least one selected serious problem, choice filtering among the selected serious problems</t>
+  </si>
+  <si>
+    <t>If there is at least two selected serious problems, choice filtering among the selected serious problems excluding first priority</t>
+  </si>
+  <si>
+    <t>If there is at least three selected serious problems, choice filtering among the selected serious problems excluding first and second priority</t>
+  </si>
+  <si>
+    <t>[If the respondent is a men] Do you have a serious problem because you are not able to get adequate health care for yourself? For example, treatment or medicines.</t>
+  </si>
+  <si>
+    <t>[Si le répondant est un homme] Avez vous un problème grave parce que vous n'êtes pas en mesure d'obtenir des soins de santé adéquats? Par exemple, un traitement ou des médicaments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Si la répondante est une femme] Avez vous un problème grave parce que vous n'êtes pas en mesure d'obtenir des soins de santé adéquats? Par exemple, les traitements ou les médicaments, ou les soins de santé pendant la grossesse ou l'accouchement.
+</t>
+  </si>
+  <si>
+    <t>[If the respondent is a women] Do you have a serious problem because you are not able to get adequate health care for yourself? For example, treatment or medicines, or health care during pregnancy or childbirth.</t>
+  </si>
+  <si>
+    <t>Do you have a serious problem because you do not have enough information? For example, because you do not have enough information (about the aid that is available, access to services, about what is happening in home country or home town if you are displaced,…)</t>
+  </si>
+  <si>
+    <t>if selected "men" to question "resp_gender"</t>
+  </si>
+  <si>
+    <t>[If the respondent is displaced] Do you have a serious problem because you have been displaced from your home country, city or village?</t>
+  </si>
+  <si>
+    <t>[Si le répondent est déplacé] Votre ménage a t'il un grave problème du fait que vous êtes déplacé de votre pays, ville ou village?</t>
+  </si>
+  <si>
+    <t>hesper_clean_male</t>
+  </si>
+  <si>
+    <t>hesper_health_care_male</t>
+  </si>
+  <si>
+    <t>hesper_health_care_female</t>
   </si>
   <si>
     <t>(if(selected(${hesper_drinking_water}, 'serious_problem'),1,0) + 
 if(selected(${hesper_food}, 'serious_problem'),1,0) + 
 if(selected(${hesper_shelter}, 'serious_problem'),1,0) + 
 if(selected(${hesper_toilet}, 'serious_problem'),1,0) + 
-if(selected(${hesper_clean_men}, 'serious_problem'),1,0) + 
-if(selected(${hesper_clean_women}, 'serious_problem'),1,0) + 
+if(selected(${hesper_clean_male}, 'serious_problem'),1,0) + 
+if(selected(${hesper_clean_female}, 'serious_problem'),1,0) + 
 if(selected(${hesper_clothes_etc}, 'serious_problem'),1,0) + 
 if(selected(${hesper_income_livelihood}, 'serious_problem'),1,0) + 
 if(selected(${hesper_health}, 'serious_problem'),1,0) + 
-if(selected(${hesper_health_care_men}, 'serious_problem'),1,0) + 
-if(selected(${hesper_health_care_women}, 'serious_problem'),1,0) + 
+if(selected(${hesper_health_care_male}, 'serious_problem'),1,0) + 
+if(selected(${hesper_health_care_female}, 'serious_problem'),1,0) + 
 if(selected(${hesper_distress}, 'serious_problem'),1,0) + 
 if(selected(${hesper_safety}, 'serious_problem'),1,0) + 
 if(selected(${hesper_education}, 'serious_problem'),1,0) + 
@@ -5166,13 +5200,13 @@
 (visible=${hesper_food} and filter_2='hesper_food') or 
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
-(visible=${hesper_clean_men} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_male} and filter_2='hesper_clean') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5197,13 +5231,13 @@
 (visible=${hesper_food} and filter_2='hesper_food') or 
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
-(visible=${hesper_clean_men} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_male} and filter_2='hesper_clean') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5229,13 +5263,13 @@
 (visible=${hesper_food} and filter_2='hesper_food') or 
 (visible=${hesper_shelter} and filter_2='hesper_shelter') or 
 (visible=${hesper_toilet} and filter_2='hesper_toilet') or 
-(visible=${hesper_clean_men} and filter_2='hesper_clean') or 
-(visible=${hesper_clean_women} and filter_2='hesper_clean_women') or 
+(visible=${hesper_clean_male} and filter_2='hesper_clean') or 
+(visible=${hesper_clean_female} and filter_2='hesper_clean_female') or 
 (visible=${hesper_clothes_etc} and filter_2='hesper_clothes_etc') or 
 (visible=${hesper_income_livelihood} and filter_2='hesper_income_livelihood') or 
 (visible=${hesper_health} and filter_2='hesper_health') or 
-(visible=${hesper_health_care_men} and filter_2='hesper_health_care_men') or 
-(visible=${hesper_health_care_women} and filter_2='hesper_health_care_women') or 
+(visible=${hesper_health_care_male} and filter_2='hesper_health_care_male') or 
+(visible=${hesper_health_care_female} and filter_2='hesper_health_care_female') or 
 (visible=${hesper_distress} and filter_2='hesper_distress') or 
 (visible=${hesper_safety} and filter_2='hesper_safety') or 
 (visible=${hesper_education} and filter_2='hesper_education') or 
@@ -5258,50 +5292,19 @@
 (filter_2!=${hesper_priority_second})</t>
   </si>
   <si>
-    <t>Votre ménage a t'il un problème grave parce que vous n'a pas assez d'eau potable ou d'eau pour cuisiner ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have a serious problem because in your situation it is difficult to care for other household members? For example, young children in your household, or household members who are elderly, or with a physical or mental health issue or a disability </t>
-  </si>
-  <si>
-    <t>If selected "displaced" to question "pop_group"</t>
-  </si>
-  <si>
-    <t>If there is at least one selected serious problem, choice filtering among the selected serious problems</t>
-  </si>
-  <si>
-    <t>If there is at least two selected serious problems, choice filtering among the selected serious problems excluding first priority</t>
-  </si>
-  <si>
-    <t>If there is at least three selected serious problems, choice filtering among the selected serious problems excluding first and second priority</t>
-  </si>
-  <si>
-    <t>[If the respondent is a men] Do you have a serious problem because you are not able to get adequate health care for yourself? For example, treatment or medicines.</t>
-  </si>
-  <si>
-    <t>[Si le répondant est un homme] Avez vous un problème grave parce que vous n'êtes pas en mesure d'obtenir des soins de santé adéquats? Par exemple, un traitement ou des médicaments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Si la répondante est une femme] Avez vous un problème grave parce que vous n'êtes pas en mesure d'obtenir des soins de santé adéquats? Par exemple, les traitements ou les médicaments, ou les soins de santé pendant la grossesse ou l'accouchement.
-</t>
-  </si>
-  <si>
-    <t>[If the respondent is a women] Do you have a serious problem because you are not able to get adequate health care for yourself? For example, treatment or medicines, or health care during pregnancy or childbirth.</t>
-  </si>
-  <si>
-    <t>Do you have a serious problem because you do not have enough information? For example, because you do not have enough information (about the aid that is available, access to services, about what is happening in home country or home town if you are displaced,…)</t>
-  </si>
-  <si>
-    <t>selected(${resp_gender}, 'men')</t>
-  </si>
-  <si>
-    <t>if selected "men" to question "resp_gender"</t>
-  </si>
-  <si>
-    <t>[If the respondent is displaced] Do you have a serious problem because you have been displaced from your home country, city or village?</t>
-  </si>
-  <si>
-    <t>[Si le répondent est déplacé] Votre ménage a t'il un grave problème du fait que vous êtes déplacé de votre pays, ville ou village?</t>
+    <t>hesper_clean_female</t>
+  </si>
+  <si>
+    <t>selected(${resp_gender}, 'male')</t>
+  </si>
+  <si>
+    <t>selected(${resp_gender}, 'female')</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
@@ -5816,7 +5819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6075,6 +6078,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -36486,11 +36492,11 @@
   </sheetPr>
   <dimension ref="A1:AB131"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -36613,7 +36619,7 @@
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E2" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36671,7 +36677,7 @@
       </c>
       <c r="C3" s="86"/>
       <c r="D3" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E3" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36729,7 +36735,7 @@
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E4" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36787,7 +36793,7 @@
       </c>
       <c r="C5" s="86"/>
       <c r="D5" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E5" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36845,7 +36851,7 @@
       </c>
       <c r="C6" s="86"/>
       <c r="D6" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E6" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36858,7 +36864,7 @@
         <v>1160</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>1451</v>
+        <v>1487</v>
       </c>
       <c r="I6" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -36871,7 +36877,7 @@
         <v>1392</v>
       </c>
       <c r="L6" s="86" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="M6" s="86"/>
       <c r="N6" s="86"/>
@@ -36898,14 +36904,14 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="86" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="86"/>
       <c r="D7" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E7" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -36918,7 +36924,7 @@
         <v>1160</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
       <c r="I7" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -36931,7 +36937,7 @@
         <v>1392</v>
       </c>
       <c r="L7" s="86" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
@@ -36965,7 +36971,7 @@
       </c>
       <c r="C8" s="86"/>
       <c r="D8" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E8" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37023,7 +37029,7 @@
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E9" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37081,7 +37087,7 @@
       </c>
       <c r="C10" s="86"/>
       <c r="D10" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E10" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37132,14 +37138,14 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" s="86" t="s">
-        <v>1399</v>
+        <v>1488</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="86"/>
       <c r="D11" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E11" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37153,7 +37159,7 @@
       </c>
       <c r="H11" s="86" t="str">
         <f>Table1[[#This Row],[id_for_module_and_ind_id]]</f>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="I11" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -37166,7 +37172,7 @@
         <v>1392</v>
       </c>
       <c r="L11" s="86" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="M11" s="86"/>
       <c r="N11" s="86"/>
@@ -37193,14 +37199,14 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="86" t="s">
-        <v>1400</v>
+        <v>1489</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="86"/>
       <c r="D12" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E12" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37214,7 +37220,7 @@
       </c>
       <c r="H12" s="86" t="str">
         <f>Table1[[#This Row],[id_for_module_and_ind_id]]</f>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="I12" s="86" t="str">
         <f>VLOOKUP(Table1[[#This Row],[Question id]],survey!F:G,2,FALSE)</f>
@@ -37227,7 +37233,7 @@
         <v>1392</v>
       </c>
       <c r="L12" s="86" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="M12" s="86"/>
       <c r="N12" s="86"/>
@@ -37261,7 +37267,7 @@
       </c>
       <c r="C13" s="86"/>
       <c r="D13" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E13" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37319,7 +37325,7 @@
       </c>
       <c r="C14" s="86"/>
       <c r="D14" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E14" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37377,7 +37383,7 @@
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E15" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37435,7 +37441,7 @@
       </c>
       <c r="C16" s="86"/>
       <c r="D16" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E16" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37493,7 +37499,7 @@
       </c>
       <c r="C17" s="86"/>
       <c r="D17" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E17" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37551,7 +37557,7 @@
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E18" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37609,7 +37615,7 @@
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E19" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37635,7 +37641,7 @@
         <v>1392</v>
       </c>
       <c r="L19" s="86" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
@@ -37669,7 +37675,7 @@
       </c>
       <c r="C20" s="86"/>
       <c r="D20" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E20" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37727,7 +37733,7 @@
       </c>
       <c r="C21" s="86"/>
       <c r="D21" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E21" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37785,7 +37791,7 @@
       </c>
       <c r="C22" s="86"/>
       <c r="D22" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E22" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37843,7 +37849,7 @@
       </c>
       <c r="C23" s="86"/>
       <c r="D23" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E23" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37901,7 +37907,7 @@
       </c>
       <c r="C24" s="86"/>
       <c r="D24" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E24" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -37959,7 +37965,7 @@
       </c>
       <c r="C25" s="86"/>
       <c r="D25" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E25" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38019,7 +38025,7 @@
       </c>
       <c r="C26" s="86"/>
       <c r="D26" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E26" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38048,7 +38054,7 @@
       <c r="M26" s="86"/>
       <c r="N26" s="86"/>
       <c r="O26" s="86" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="P26" s="86"/>
       <c r="Q26" s="88">
@@ -38079,7 +38085,7 @@
       </c>
       <c r="C27" s="86"/>
       <c r="D27" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E27" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38139,7 +38145,7 @@
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E28" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38168,7 +38174,7 @@
       <c r="M28" s="86"/>
       <c r="N28" s="86"/>
       <c r="O28" s="86" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="P28" s="86"/>
       <c r="Q28" s="88">
@@ -38199,7 +38205,7 @@
       </c>
       <c r="C29" s="86"/>
       <c r="D29" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E29" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38259,7 +38265,7 @@
       </c>
       <c r="C30" s="86"/>
       <c r="D30" s="86" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="E30" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38317,7 +38323,7 @@
       </c>
       <c r="C31" s="86"/>
       <c r="D31" s="86" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="E31" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38343,7 +38349,7 @@
         <v>1393</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="M31" s="86"/>
       <c r="N31" s="86"/>
@@ -38377,7 +38383,7 @@
       </c>
       <c r="C32" s="86"/>
       <c r="D32" s="86" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="E32" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38403,7 +38409,7 @@
         <v>1394</v>
       </c>
       <c r="L32" s="92" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="M32" s="91" t="s">
         <v>1396</v>
@@ -38439,7 +38445,7 @@
       </c>
       <c r="C33" s="86"/>
       <c r="D33" s="86" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="E33" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
@@ -38465,7 +38471,7 @@
         <v>1395</v>
       </c>
       <c r="L33" s="92" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="M33" s="91" t="s">
         <v>1397</v>
@@ -38501,14 +38507,14 @@
       </c>
       <c r="C34" s="92"/>
       <c r="D34" s="86" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="E34" s="87" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[Module id]],"_"," ")</f>
         <v>hesper individual priority</v>
       </c>
       <c r="F34" s="92" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G34" s="93" t="s">
         <v>1321</v>
@@ -41379,11 +41385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856AF4C-2F5B-4199-AEA4-5B4DBC01D92C}">
   <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -41524,26 +41530,26 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>161</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="L3" s="31"/>
       <c r="N3" s="31"/>
@@ -41591,10 +41597,10 @@
         <v>1003</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="I5" s="31" t="str">
         <f>J5&amp;" "&amp;K5</f>
@@ -41634,10 +41640,10 @@
         <v>1004</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I6" s="31" t="str">
         <f t="shared" ref="I6:I27" si="1">J6&amp;" "&amp;K6</f>
@@ -41677,10 +41683,10 @@
         <v>1005</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I7" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41720,10 +41726,10 @@
         <v>1006</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I8" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41745,7 +41751,7 @@
     <row r="9" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>hesper_clean_men</v>
+        <v>hesper_clean_male</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>28</v>
@@ -41754,19 +41760,19 @@
         <v>1071</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>1451</v>
+        <v>1487</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>1293</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>1451</v>
+        <v>1487</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="I9" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41779,7 +41785,7 @@
         <v>1071</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>1072</v>
@@ -41791,7 +41797,7 @@
     <row r="10" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="str">
         <f t="shared" ref="A10" si="2">F10</f>
-        <v>hesper_clean_women</v>
+        <v>hesper_clean_female</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>28</v>
@@ -41800,19 +41806,19 @@
         <v>1071</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>1294</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="I10" s="31" t="str">
         <f t="shared" ref="I10" si="3">J10&amp;" "&amp;K10</f>
@@ -41825,7 +41831,7 @@
         <v>1071</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>1357</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
@@ -41849,10 +41855,10 @@
         <v>1007</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I11" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41892,10 +41898,10 @@
         <v>1008</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I12" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41935,10 +41941,10 @@
         <v>1009</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I13" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41960,7 +41966,7 @@
     <row r="14" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>28</v>
@@ -41969,20 +41975,20 @@
         <v>1071</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>1399</v>
+        <v>1488</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>1298</v>
       </c>
       <c r="F14" s="31" t="str">
         <f>D14</f>
-        <v>hesper_health_care_men</v>
+        <v>hesper_health_care_male</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="I14" s="31" t="str">
         <f t="shared" si="1"/>
@@ -41995,7 +42001,7 @@
         <v>1071</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="R14" s="31" t="s">
         <v>1072</v>
@@ -42007,7 +42013,7 @@
     <row r="15" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>28</v>
@@ -42016,20 +42022,20 @@
         <v>1071</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>1400</v>
+        <v>1489</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>1299</v>
       </c>
       <c r="F15" s="31" t="str">
         <f>D15</f>
-        <v>hesper_health_care_women</v>
+        <v>hesper_health_care_female</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="I15" s="31" t="str">
         <f t="shared" ref="I15" si="4">J15&amp;" "&amp;K15</f>
@@ -42042,7 +42048,7 @@
         <v>1071</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>1357</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="16" spans="1:24" s="31" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
@@ -42066,10 +42072,10 @@
         <v>1025</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I16" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42109,10 +42115,10 @@
         <v>1010</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="I17" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42152,10 +42158,10 @@
         <v>1011</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="I18" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42195,10 +42201,10 @@
         <v>1012</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I19" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42238,10 +42244,10 @@
         <v>1013</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I20" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42281,10 +42287,10 @@
         <v>1014</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I21" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42324,10 +42330,10 @@
         <v>1015</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="I22" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42340,7 +42346,7 @@
         <v>1071</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="R22" s="31" t="s">
         <v>1072</v>
@@ -42370,10 +42376,10 @@
         <v>1032</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="H23" s="52" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="I23" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42413,10 +42419,10 @@
         <v>1016</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="I24" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42456,10 +42462,10 @@
         <v>1017</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I25" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42499,10 +42505,10 @@
         <v>1018</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I26" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42542,10 +42548,10 @@
         <v>1019</v>
       </c>
       <c r="G27" s="31" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="I27" s="31" t="str">
         <f t="shared" si="1"/>
@@ -42767,10 +42773,10 @@
         <v>1023</v>
       </c>
       <c r="G33" s="52" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="I33" s="31" t="str">
         <f t="shared" si="5"/>
@@ -42810,10 +42816,10 @@
         <v>1024</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="I34" s="31" t="str">
         <f>J34&amp;" "&amp;K34</f>
@@ -42894,8 +42900,8 @@
         <v>1073</v>
       </c>
       <c r="H37" s="74"/>
-      <c r="L37" s="45" t="s">
-        <v>1479</v>
+      <c r="L37" s="99" t="s">
+        <v>1490</v>
       </c>
       <c r="X37" s="45">
         <v>216</v>
@@ -42922,8 +42928,8 @@
       </c>
       <c r="J38" s="31"/>
       <c r="K38" s="31"/>
-      <c r="L38" s="31" t="s">
-        <v>1479</v>
+      <c r="L38" s="77" t="s">
+        <v>1490</v>
       </c>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
@@ -42965,8 +42971,8 @@
       <c r="K39" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L39" s="31" t="s">
-        <v>1479</v>
+      <c r="L39" s="77" t="s">
+        <v>1490</v>
       </c>
       <c r="N39" s="31" t="s">
         <v>172</v>
@@ -42974,8 +42980,8 @@
       <c r="R39" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V39" s="31" t="s">
-        <v>1480</v>
+      <c r="V39" s="77" t="s">
+        <v>1491</v>
       </c>
       <c r="X39" s="31">
         <v>218</v>
@@ -43014,8 +43020,8 @@
       <c r="K40" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L40" s="31" t="s">
-        <v>1479</v>
+      <c r="L40" s="77" t="s">
+        <v>1490</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>172</v>
@@ -43023,8 +43029,8 @@
       <c r="R40" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V40" s="31" t="s">
-        <v>1481</v>
+      <c r="V40" s="77" t="s">
+        <v>1492</v>
       </c>
       <c r="X40" s="31">
         <v>219</v>
@@ -43063,8 +43069,8 @@
       <c r="K41" s="29" t="s">
         <v>1090</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>1479</v>
+      <c r="L41" s="77" t="s">
+        <v>1490</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>172</v>
@@ -43072,8 +43078,8 @@
       <c r="R41" s="31" t="s">
         <v>1201</v>
       </c>
-      <c r="V41" s="31" t="s">
-        <v>1482</v>
+      <c r="V41" s="77" t="s">
+        <v>1493</v>
       </c>
       <c r="X41" s="31">
         <v>220</v>
@@ -43094,7 +43100,7 @@
         <v>1213</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F42" s="31" t="s">
         <v>1213</v>
@@ -43114,8 +43120,8 @@
       <c r="K42" s="29" t="s">
         <v>801</v>
       </c>
-      <c r="L42" s="31" t="s">
-        <v>1479</v>
+      <c r="L42" s="77" t="s">
+        <v>1490</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>336</v>
@@ -43127,8 +43133,8 @@
         <v>0</v>
       </c>
       <c r="U42" s="32"/>
-      <c r="V42" s="31" t="s">
-        <v>1480</v>
+      <c r="V42" s="77" t="s">
+        <v>1491</v>
       </c>
       <c r="W42" s="30">
         <v>39</v>
@@ -43152,7 +43158,7 @@
         <v>1214</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>1214</v>
@@ -43238,11 +43244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B24C3D-9257-4B15-9509-EDE2503BEAF5}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -43749,10 +43755,10 @@
         <v>1066</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>1090</v>
@@ -43766,19 +43772,19 @@
         <v>1090</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1406</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -43846,19 +43852,19 @@
         <v>1090</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>1399</v>
+        <v>1488</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>1399</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -43866,19 +43872,19 @@
         <v>1090</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>1400</v>
+        <v>1489</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>1090</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>1400</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -44283,30 +44289,30 @@
     </row>
     <row r="62" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B62" s="81" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C62" s="81" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D62" s="81" t="s">
         <v>1413</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B63" s="81" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C63" s="81" t="s">
         <v>1412</v>
       </c>
-      <c r="B63" s="81" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>1415</v>
-      </c>
       <c r="D63" s="81" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="81" customFormat="1" x14ac:dyDescent="0.35">
@@ -44317,13 +44323,13 @@
         <v>1361</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>1439</v>
+        <v>1498</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -44331,13 +44337,13 @@
         <v>1361</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>1442</v>
+        <v>1497</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -44348,10 +44354,10 @@
         <v>195</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -65468,6 +65474,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="E63:E64"/>
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="G78:G79"/>
@@ -65477,12 +65489,6 @@
     <mergeCell ref="G75:G76"/>
     <mergeCell ref="F75:F76"/>
     <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="E63:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -65490,6 +65496,73 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212">
+      <UserInfo>
+        <DisplayName>Saeed RAHMAN</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>IMPACT GENEVA PHU</DisplayName>
+        <AccountId>194</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hao CAI</DisplayName>
+        <AccountId>198</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeremy BINZ</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Guillaume NOBLET</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Nicholas ARCHDEACON</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sunhee MORAES</DisplayName>
+        <AccountId>157</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Alin LUCHIAN</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Robin Urbaniak</DisplayName>
+        <AccountId>14</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE51FB2AFBB2DD429D3D11FE759FFC43" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="aef6d84b9533c2c7e1fb337c73d9c69e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f4877444-78fa-4cfa-bafc-d6c64fafc061" xmlns:ns3="d0fa6634-326e-4532-91a2-52bea7ac9212" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4cc3ba5565c046c17d5dfc9699468446" ns2:_="" ns3:_="">
     <xsd:import namespace="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
@@ -65718,75 +65791,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f4877444-78fa-4cfa-bafc-d6c64fafc061">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="d0fa6634-326e-4532-91a2-52bea7ac9212">
-      <UserInfo>
-        <DisplayName>Saeed RAHMAN</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>IMPACT GENEVA PHU</DisplayName>
-        <AccountId>194</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hao CAI</DisplayName>
-        <AccountId>198</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeremy BINZ</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Guillaume NOBLET</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Nicholas ARCHDEACON</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sunhee MORAES</DisplayName>
-        <AccountId>157</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Alin LUCHIAN</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Robin Urbaniak</DisplayName>
-        <AccountId>14</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAD69055-E6A9-4E6E-80F2-EF160D9E88DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6CC0EC-6C10-4BFF-95EC-48B984E621F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65809,9 +65819,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6CC0EC-6C10-4BFF-95EC-48B984E621F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAD69055-E6A9-4E6E-80F2-EF160D9E88DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f4877444-78fa-4cfa-bafc-d6c64fafc061"/>
+    <ds:schemaRef ds:uri="d0fa6634-326e-4532-91a2-52bea7ac9212"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>